--- a/ayudas/costos de guarderia.xlsx
+++ b/ayudas/costos de guarderia.xlsx
@@ -766,7 +766,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -852,7 +852,7 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108:I108"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,10 @@
         <f t="shared" si="1"/>
         <v>182.05211169927236</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="e">
+        <f>I15*J16/J15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="5">

--- a/ayudas/costos de guarderia.xlsx
+++ b/ayudas/costos de guarderia.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -1139,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:L255"/>
+  <dimension ref="E2:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,7 +5683,7 @@
         <v>240</v>
       </c>
       <c r="F245" s="9">
-        <f t="shared" ref="F245:F255" si="19">F244-F244*0.00205</f>
+        <f t="shared" ref="F245:F264" si="19">F244-F244*0.00205</f>
         <v>3.8412201236841375</v>
       </c>
       <c r="G245" s="1">
@@ -5867,6 +5867,159 @@
       <c r="H255" s="1">
         <f t="shared" si="17"/>
         <v>1147.7752609818417</v>
+      </c>
+    </row>
+    <row r="256" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>251</v>
+      </c>
+      <c r="F256" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7554830219568163</v>
+      </c>
+      <c r="G256" s="1">
+        <f t="shared" ref="G256:G264" si="20">F256*E256</f>
+        <v>942.62623851116086</v>
+      </c>
+      <c r="H256" s="1">
+        <f t="shared" ref="H256:H264" si="21">G256*$H$4</f>
+        <v>1150.0040109836161</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>252</v>
+      </c>
+      <c r="F257" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7477842817618048</v>
+      </c>
+      <c r="G257" s="1">
+        <f t="shared" si="20"/>
+        <v>944.44163900397484</v>
+      </c>
+      <c r="H257" s="1">
+        <f t="shared" si="21"/>
+        <v>1152.2187995848492</v>
+      </c>
+    </row>
+    <row r="258" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>253</v>
+      </c>
+      <c r="F258" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7401013239841929</v>
+      </c>
+      <c r="G258" s="1">
+        <f t="shared" si="20"/>
+        <v>946.24563496800079</v>
+      </c>
+      <c r="H258" s="1">
+        <f t="shared" si="21"/>
+        <v>1154.4196746609609</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>254</v>
+      </c>
+      <c r="F259" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7324341162700252</v>
+      </c>
+      <c r="G259" s="1">
+        <f t="shared" si="20"/>
+        <v>948.03826553258637</v>
+      </c>
+      <c r="H259" s="1">
+        <f t="shared" si="21"/>
+        <v>1156.6066839497553</v>
+      </c>
+    </row>
+    <row r="260" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>255</v>
+      </c>
+      <c r="F260" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7247826263316717</v>
+      </c>
+      <c r="G260" s="1">
+        <f t="shared" si="20"/>
+        <v>949.81956971457623</v>
+      </c>
+      <c r="H260" s="1">
+        <f t="shared" si="21"/>
+        <v>1158.7798750517829</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>256</v>
+      </c>
+      <c r="F261" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7171468219476917</v>
+      </c>
+      <c r="G261" s="1">
+        <f t="shared" si="20"/>
+        <v>951.58958641860909</v>
+      </c>
+      <c r="H261" s="1">
+        <f t="shared" si="21"/>
+        <v>1160.9392954307032</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>257</v>
+      </c>
+      <c r="F262" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7095266709626991</v>
+      </c>
+      <c r="G262" s="1">
+        <f t="shared" si="20"/>
+        <v>953.3483544374136</v>
+      </c>
+      <c r="H262" s="1">
+        <f t="shared" si="21"/>
+        <v>1163.0849924136446</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>258</v>
+      </c>
+      <c r="F263" s="9">
+        <f t="shared" si="19"/>
+        <v>3.7019221412872256</v>
+      </c>
+      <c r="G263" s="1">
+        <f t="shared" si="20"/>
+        <v>955.09591245210424</v>
+      </c>
+      <c r="H263" s="1">
+        <f t="shared" si="21"/>
+        <v>1165.217013191567</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>259</v>
+      </c>
+      <c r="F264" s="9">
+        <f t="shared" si="19"/>
+        <v>3.6943332008975869</v>
+      </c>
+      <c r="G264" s="1">
+        <f t="shared" si="20"/>
+        <v>956.83229903247502</v>
+      </c>
+      <c r="H264" s="1">
+        <f t="shared" si="21"/>
+        <v>1167.3354048196195</v>
       </c>
     </row>
   </sheetData>
@@ -5879,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
